--- a/Parking_spaces_eng.xlsx
+++ b/Parking_spaces_eng.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jcdecaux-my.sharepoint.com/personal/kasey_chan_jcdecaux_com/Documents/Desktop/Kasey/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="8_{73A07C7E-4EE0-4BB1-8DBC-43739C1E2655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41F823B3-DA6A-4AEB-B493-9EABD81D986A}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="8_{73A07C7E-4EE0-4BB1-8DBC-43739C1E2655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F57631E7-4AA4-45CC-9357-D0DFE8E74A7A}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
